--- a/data/pca/factorExposure/factorExposure_2010-04-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-23.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01592644461332248</v>
+        <v>-0.0171642649110438</v>
       </c>
       <c r="C2">
-        <v>-0.002908383618462114</v>
+        <v>0.001105959672423303</v>
       </c>
       <c r="D2">
-        <v>-0.0117206623044721</v>
+        <v>-0.007997584107249085</v>
       </c>
       <c r="E2">
-        <v>-0.008859162183502835</v>
+        <v>0.0003041467891780558</v>
       </c>
       <c r="F2">
-        <v>0.02716692406499373</v>
+        <v>0.01060047679909068</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.116471879267687</v>
+        <v>-0.09307631812141287</v>
       </c>
       <c r="C4">
-        <v>0.06381774595782776</v>
+        <v>0.01694541767959064</v>
       </c>
       <c r="D4">
-        <v>-0.05898626598516201</v>
+        <v>-0.08327343763200659</v>
       </c>
       <c r="E4">
-        <v>0.01635664514401979</v>
+        <v>-0.03012414126128736</v>
       </c>
       <c r="F4">
-        <v>0.02020647407973899</v>
+        <v>-0.03183047045035938</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1230392731254761</v>
+        <v>-0.1530263647345832</v>
       </c>
       <c r="C6">
-        <v>0.02004258290577013</v>
+        <v>0.02481464348040988</v>
       </c>
       <c r="D6">
-        <v>-0.03446662064263479</v>
+        <v>0.0213357709587976</v>
       </c>
       <c r="E6">
-        <v>-0.03347911574353837</v>
+        <v>-0.009673564314531811</v>
       </c>
       <c r="F6">
-        <v>-0.04945137561705301</v>
+        <v>-0.04133976784341776</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06767574582868315</v>
+        <v>-0.05952973958348017</v>
       </c>
       <c r="C7">
-        <v>0.04290275080590004</v>
+        <v>-0.0003790597084170673</v>
       </c>
       <c r="D7">
-        <v>-0.07572552654077881</v>
+        <v>-0.05153363654532583</v>
       </c>
       <c r="E7">
-        <v>-0.01486002553037373</v>
+        <v>-0.01483994039181307</v>
       </c>
       <c r="F7">
-        <v>0.050293820733581</v>
+        <v>-0.05260566743164304</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05437174866491964</v>
+        <v>-0.05855671097526943</v>
       </c>
       <c r="C8">
-        <v>0.02982349086723583</v>
+        <v>-0.01277043256886785</v>
       </c>
       <c r="D8">
-        <v>-0.04674692421590134</v>
+        <v>-0.03048799224202398</v>
       </c>
       <c r="E8">
-        <v>0.02236818320901862</v>
+        <v>-0.0151914190381191</v>
       </c>
       <c r="F8">
-        <v>-0.02001984306240022</v>
+        <v>0.03040578193172793</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08168518697801713</v>
+        <v>-0.07111786597515748</v>
       </c>
       <c r="C9">
-        <v>0.04061022193455465</v>
+        <v>0.01304963802352243</v>
       </c>
       <c r="D9">
-        <v>-0.04456986960163216</v>
+        <v>-0.08276418900569618</v>
       </c>
       <c r="E9">
-        <v>0.024582666093643</v>
+        <v>-0.02476632488005249</v>
       </c>
       <c r="F9">
-        <v>0.01071312236601928</v>
+        <v>-0.05366565028167783</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1178745809605459</v>
+        <v>-0.09445564919840907</v>
       </c>
       <c r="C10">
-        <v>-0.1375955808622045</v>
+        <v>0.01683886494210938</v>
       </c>
       <c r="D10">
-        <v>0.08056096878926872</v>
+        <v>0.1716327042365977</v>
       </c>
       <c r="E10">
-        <v>-0.03649528071165804</v>
+        <v>0.03863037171346419</v>
       </c>
       <c r="F10">
-        <v>0.02577551343239112</v>
+        <v>0.05304890972128964</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07613325391100893</v>
+        <v>-0.08747402092489667</v>
       </c>
       <c r="C11">
-        <v>0.03389888616779742</v>
+        <v>0.0124011285985416</v>
       </c>
       <c r="D11">
-        <v>-0.07260278507042497</v>
+        <v>-0.1141642154893577</v>
       </c>
       <c r="E11">
-        <v>0.03645979003073338</v>
+        <v>-0.04858502645616063</v>
       </c>
       <c r="F11">
-        <v>0.005902487606088422</v>
+        <v>-0.01995978816960692</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07134055134832633</v>
+        <v>-0.09259249500570314</v>
       </c>
       <c r="C12">
-        <v>0.03105904163216956</v>
+        <v>0.01026579323465596</v>
       </c>
       <c r="D12">
-        <v>-0.07281931984289965</v>
+        <v>-0.12146941650198</v>
       </c>
       <c r="E12">
-        <v>0.06492145577768434</v>
+        <v>-0.04808548807674952</v>
       </c>
       <c r="F12">
-        <v>0.02829553343596055</v>
+        <v>-0.02177608642902674</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03007420520485023</v>
+        <v>-0.04252226049785435</v>
       </c>
       <c r="C13">
-        <v>0.02096657994910098</v>
+        <v>0.003931795177992457</v>
       </c>
       <c r="D13">
-        <v>-0.02078354307279484</v>
+        <v>-0.04794319884707073</v>
       </c>
       <c r="E13">
-        <v>-0.007449071111757166</v>
+        <v>0.0117884873619169</v>
       </c>
       <c r="F13">
-        <v>0.01043918345025791</v>
+        <v>-0.01274629694830316</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03924310516672624</v>
+        <v>-0.02202404016844251</v>
       </c>
       <c r="C14">
-        <v>0.02170335635815736</v>
+        <v>0.01462460192437239</v>
       </c>
       <c r="D14">
-        <v>-0.02331364946251202</v>
+        <v>-0.03232973145060532</v>
       </c>
       <c r="E14">
-        <v>0.0269218468466762</v>
+        <v>-0.01897042895946691</v>
       </c>
       <c r="F14">
-        <v>0.0001131739290914228</v>
+        <v>-0.01814103778322974</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01664373839054663</v>
+        <v>-0.03197817581258258</v>
       </c>
       <c r="C15">
-        <v>0.0113278712966693</v>
+        <v>0.005501214577792838</v>
       </c>
       <c r="D15">
-        <v>-0.01228745783302259</v>
+        <v>-0.04540217068564894</v>
       </c>
       <c r="E15">
-        <v>-0.0485533650834505</v>
+        <v>-0.009133072583885106</v>
       </c>
       <c r="F15">
-        <v>0.001923297081849107</v>
+        <v>-0.03143981513433127</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08129709022959501</v>
+        <v>-0.07378144766895076</v>
       </c>
       <c r="C16">
-        <v>0.02657397234025427</v>
+        <v>0.003943764410513073</v>
       </c>
       <c r="D16">
-        <v>-0.0816517517955284</v>
+        <v>-0.116538303022329</v>
       </c>
       <c r="E16">
-        <v>0.05645481189792122</v>
+        <v>-0.06323251667945819</v>
       </c>
       <c r="F16">
-        <v>-0.003954415562596604</v>
+        <v>-0.03009033901533021</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02198347318232422</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003701943245372984</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.0208461385834017</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01072691985236803</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02221638846592114</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04990621715912313</v>
+        <v>-0.06105916742039983</v>
       </c>
       <c r="C20">
-        <v>0.04988273583433608</v>
+        <v>0.001791284435429325</v>
       </c>
       <c r="D20">
-        <v>-0.01150033877232149</v>
+        <v>-0.07421310401865114</v>
       </c>
       <c r="E20">
-        <v>-0.01298190598290144</v>
+        <v>-0.05589664408137592</v>
       </c>
       <c r="F20">
-        <v>0.0251319050359796</v>
+        <v>-0.02771711108844791</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03049561343403155</v>
+        <v>-0.03893123122431395</v>
       </c>
       <c r="C21">
-        <v>0.02120386611139234</v>
+        <v>0.007640183109823094</v>
       </c>
       <c r="D21">
-        <v>0.008561035706486739</v>
+        <v>-0.03554682271597587</v>
       </c>
       <c r="E21">
-        <v>0.03293535603210884</v>
+        <v>0.007736396883365425</v>
       </c>
       <c r="F21">
-        <v>-0.007259771940642734</v>
+        <v>0.01970427685533354</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03663903560012959</v>
+        <v>-0.04178306683235913</v>
       </c>
       <c r="C22">
-        <v>0.003381672734634376</v>
+        <v>5.858457371691427e-05</v>
       </c>
       <c r="D22">
-        <v>-0.0494019195443958</v>
+        <v>-0.002988323969775144</v>
       </c>
       <c r="E22">
-        <v>-0.6119092529363088</v>
+        <v>-0.0290880433514283</v>
       </c>
       <c r="F22">
-        <v>0.06060917406391137</v>
+        <v>0.00926138640849684</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03717057916928018</v>
+        <v>-0.04184446271167376</v>
       </c>
       <c r="C23">
-        <v>0.003507549737298725</v>
+        <v>8.341862248498599e-05</v>
       </c>
       <c r="D23">
-        <v>-0.05143961546906782</v>
+        <v>-0.003109098213817047</v>
       </c>
       <c r="E23">
-        <v>-0.6140364481104824</v>
+        <v>-0.02943806522075888</v>
       </c>
       <c r="F23">
-        <v>0.06005732393729202</v>
+        <v>0.008807936258667765</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08157105783635953</v>
+        <v>-0.08025417542866554</v>
       </c>
       <c r="C24">
-        <v>0.04054965150599568</v>
+        <v>0.004253952722832394</v>
       </c>
       <c r="D24">
-        <v>-0.05983996688038141</v>
+        <v>-0.1173524956762635</v>
       </c>
       <c r="E24">
-        <v>0.05058605447317673</v>
+        <v>-0.05102742402044651</v>
       </c>
       <c r="F24">
-        <v>0.003577498376298792</v>
+        <v>-0.02287838727118455</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08541879889876032</v>
+        <v>-0.0848927295111737</v>
       </c>
       <c r="C25">
-        <v>0.03249659110934611</v>
+        <v>0.006261561808701452</v>
       </c>
       <c r="D25">
-        <v>-0.070218068839409</v>
+        <v>-0.1058847871647051</v>
       </c>
       <c r="E25">
-        <v>0.06930174724053281</v>
+        <v>-0.03417636258826584</v>
       </c>
       <c r="F25">
-        <v>0.02025774542723311</v>
+        <v>-0.02975225742566984</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04187913165301595</v>
+        <v>-0.05531193192403087</v>
       </c>
       <c r="C26">
-        <v>0.0008665951521013838</v>
+        <v>0.01518362415398482</v>
       </c>
       <c r="D26">
-        <v>0.008387949597964309</v>
+        <v>-0.03602111446704106</v>
       </c>
       <c r="E26">
-        <v>-0.007596572507883572</v>
+        <v>-0.02840109969921679</v>
       </c>
       <c r="F26">
-        <v>-0.02832671223801371</v>
+        <v>0.009294275794089386</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1391557862861485</v>
+        <v>-0.1425091197202116</v>
       </c>
       <c r="C28">
-        <v>-0.2696186117702281</v>
+        <v>0.01479371504106402</v>
       </c>
       <c r="D28">
-        <v>0.117303766025508</v>
+        <v>0.2672936746309971</v>
       </c>
       <c r="E28">
-        <v>0.009760964987164359</v>
+        <v>0.06891670156315192</v>
       </c>
       <c r="F28">
-        <v>-0.05657879654219105</v>
+        <v>-0.02940069911922099</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03387029558104747</v>
+        <v>-0.02701752963294168</v>
       </c>
       <c r="C29">
-        <v>0.008616802667128982</v>
+        <v>0.008828389181346491</v>
       </c>
       <c r="D29">
-        <v>-0.03035260563857034</v>
+        <v>-0.03107043386782935</v>
       </c>
       <c r="E29">
-        <v>0.03732867119126197</v>
+        <v>-0.01191380811243452</v>
       </c>
       <c r="F29">
-        <v>0.03397676316644334</v>
+        <v>0.01258407562219239</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09643360440483281</v>
+        <v>-0.06354325948003509</v>
       </c>
       <c r="C30">
-        <v>0.05143324815144642</v>
+        <v>0.005754630192276938</v>
       </c>
       <c r="D30">
-        <v>-0.09644688824404023</v>
+        <v>-0.08267205856961422</v>
       </c>
       <c r="E30">
-        <v>0.07984213498425724</v>
+        <v>-0.02480782449519954</v>
       </c>
       <c r="F30">
-        <v>-0.05296315278463867</v>
+        <v>-0.1060824642053327</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03051776033390967</v>
+        <v>-0.04849286958674174</v>
       </c>
       <c r="C31">
-        <v>0.0356747708574243</v>
+        <v>0.01512720052476701</v>
       </c>
       <c r="D31">
-        <v>-0.02365987964084046</v>
+        <v>-0.02791761836136156</v>
       </c>
       <c r="E31">
-        <v>0.005002750468032325</v>
+        <v>-0.02745310060051895</v>
       </c>
       <c r="F31">
-        <v>0.01901829573266706</v>
+        <v>0.00364734429093884</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05617311081680283</v>
+        <v>-0.04774085273049597</v>
       </c>
       <c r="C32">
-        <v>0.02381117195752076</v>
+        <v>0.0003346667614520363</v>
       </c>
       <c r="D32">
-        <v>0.01114324769317931</v>
+        <v>-0.0302177608331212</v>
       </c>
       <c r="E32">
-        <v>0.06132761717723489</v>
+        <v>-0.02949292633640161</v>
       </c>
       <c r="F32">
-        <v>-0.06766120879318221</v>
+        <v>-0.001186094961388239</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08674115351702444</v>
+        <v>-0.0901466185499243</v>
       </c>
       <c r="C33">
-        <v>0.01711557143249682</v>
+        <v>0.009443158537465919</v>
       </c>
       <c r="D33">
-        <v>-0.08708154128529387</v>
+        <v>-0.09365440053458593</v>
       </c>
       <c r="E33">
-        <v>0.03012168702699447</v>
+        <v>-0.04692077206457922</v>
       </c>
       <c r="F33">
-        <v>0.01759305205390408</v>
+        <v>-0.04106216174308246</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07009920543737666</v>
+        <v>-0.06812905054043139</v>
       </c>
       <c r="C34">
-        <v>0.02145615466136303</v>
+        <v>0.01242916348193741</v>
       </c>
       <c r="D34">
-        <v>-0.05830776268077627</v>
+        <v>-0.09800870601687432</v>
       </c>
       <c r="E34">
-        <v>0.05165164821543268</v>
+        <v>-0.03578096448303455</v>
       </c>
       <c r="F34">
-        <v>0.008229623689807571</v>
+        <v>-0.04250472511889377</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01421157696644647</v>
+        <v>-0.02443235973897524</v>
       </c>
       <c r="C35">
-        <v>0.005072563951511106</v>
+        <v>0.002563877618931356</v>
       </c>
       <c r="D35">
-        <v>-0.02084659301960713</v>
+        <v>-0.01143715277825665</v>
       </c>
       <c r="E35">
-        <v>0.0123564640775039</v>
+        <v>-0.01148018994741739</v>
       </c>
       <c r="F35">
-        <v>0.01952230324838659</v>
+        <v>-0.009571837504141947</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02506167021348545</v>
+        <v>-0.02409423275378343</v>
       </c>
       <c r="C36">
-        <v>0.01179546158899531</v>
+        <v>0.007432416616692603</v>
       </c>
       <c r="D36">
-        <v>-0.01324824133033327</v>
+        <v>-0.03812311849075743</v>
       </c>
       <c r="E36">
-        <v>0.00472556264515299</v>
+        <v>-0.01730703643938758</v>
       </c>
       <c r="F36">
-        <v>-0.005179250941479196</v>
+        <v>-0.01062282942170787</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.008924837704200899</v>
+        <v>-0.001651077379580104</v>
       </c>
       <c r="C38">
-        <v>0.008754435154682834</v>
+        <v>0.0002699775309960525</v>
       </c>
       <c r="D38">
-        <v>-0.01450525206445755</v>
+        <v>-0.001241410010542323</v>
       </c>
       <c r="E38">
-        <v>-0.02002260222347679</v>
+        <v>-0.001519098439824089</v>
       </c>
       <c r="F38">
-        <v>0.02777050643493719</v>
+        <v>0.0005364407892892715</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1138054807516328</v>
+        <v>-0.1088622238565778</v>
       </c>
       <c r="C39">
-        <v>0.04963618389196481</v>
+        <v>0.01784457019406634</v>
       </c>
       <c r="D39">
-        <v>-0.1241001973367311</v>
+        <v>-0.1525678237447146</v>
       </c>
       <c r="E39">
-        <v>0.1582749670340046</v>
+        <v>-0.06129515013132089</v>
       </c>
       <c r="F39">
-        <v>0.02652366803453395</v>
+        <v>-0.02883387149018285</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01136261963141197</v>
+        <v>-0.03708999985415848</v>
       </c>
       <c r="C40">
-        <v>0.05214294096415913</v>
+        <v>0.007412147385205164</v>
       </c>
       <c r="D40">
-        <v>-0.02025833480597626</v>
+        <v>-0.03134712279204557</v>
       </c>
       <c r="E40">
-        <v>-0.04556072422413003</v>
+        <v>-0.003218903346628485</v>
       </c>
       <c r="F40">
-        <v>0.04043732856858918</v>
+        <v>0.0138407732499943</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02951692750536514</v>
+        <v>-0.02614494386013739</v>
       </c>
       <c r="C41">
-        <v>0.01054677572574229</v>
+        <v>0.006817833167314618</v>
       </c>
       <c r="D41">
-        <v>-0.0113136976913526</v>
+        <v>-0.01080230888664636</v>
       </c>
       <c r="E41">
-        <v>0.01233645088574611</v>
+        <v>-0.01233863165260947</v>
       </c>
       <c r="F41">
-        <v>0.01452273261930682</v>
+        <v>0.009688709643867571</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03850316374032353</v>
+        <v>-0.04113361206512749</v>
       </c>
       <c r="C43">
-        <v>-0.0002825294005730323</v>
+        <v>0.006836934428702884</v>
       </c>
       <c r="D43">
-        <v>-0.02924040149843283</v>
+        <v>-0.0203818132113591</v>
       </c>
       <c r="E43">
-        <v>0.002639206978475008</v>
+        <v>-0.02519089439006154</v>
       </c>
       <c r="F43">
-        <v>0.001763115016726903</v>
+        <v>0.0112487925389332</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1172544800645645</v>
+        <v>-0.07219401680173344</v>
       </c>
       <c r="C44">
-        <v>0.08611090052079486</v>
+        <v>0.02206362508040759</v>
       </c>
       <c r="D44">
-        <v>-0.1572090397256246</v>
+        <v>-0.1010371411186646</v>
       </c>
       <c r="E44">
-        <v>-0.06588650427291287</v>
+        <v>-0.06799108123291189</v>
       </c>
       <c r="F44">
-        <v>0.09500781175520995</v>
+        <v>-0.1685921422399398</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02438189137417379</v>
+        <v>-0.0218341266009821</v>
       </c>
       <c r="C46">
-        <v>-0.01679594325429033</v>
+        <v>0.004175619940820006</v>
       </c>
       <c r="D46">
-        <v>-0.02872275174174236</v>
+        <v>-0.01131772071414742</v>
       </c>
       <c r="E46">
-        <v>-0.01644615284047575</v>
+        <v>-0.02337640863918859</v>
       </c>
       <c r="F46">
-        <v>0.02722255797402686</v>
+        <v>0.0001194399949025287</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03840978180046135</v>
+        <v>-0.05195983995102894</v>
       </c>
       <c r="C47">
-        <v>0.02040450451033203</v>
+        <v>0.003345247305504207</v>
       </c>
       <c r="D47">
-        <v>-0.02133873967864076</v>
+        <v>-0.01251491362298668</v>
       </c>
       <c r="E47">
-        <v>0.0151454284344592</v>
+        <v>-0.02259938538819043</v>
       </c>
       <c r="F47">
-        <v>0.006432739196125071</v>
+        <v>0.04476673862148144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04281435316535569</v>
+        <v>-0.04799358706109388</v>
       </c>
       <c r="C48">
-        <v>0.01078360050748981</v>
+        <v>0.003270279709459903</v>
       </c>
       <c r="D48">
-        <v>-0.01024679182035773</v>
+        <v>-0.04739124802974087</v>
       </c>
       <c r="E48">
-        <v>0.01172145844865227</v>
+        <v>0.004260378427002619</v>
       </c>
       <c r="F48">
-        <v>0.01614117613093319</v>
+        <v>-0.01094287884224399</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2225397817921636</v>
+        <v>-0.2032938319644995</v>
       </c>
       <c r="C49">
-        <v>0.006022410029788302</v>
+        <v>0.01744872241107305</v>
       </c>
       <c r="D49">
-        <v>0.06900207330233295</v>
+        <v>0.01129955535873313</v>
       </c>
       <c r="E49">
-        <v>-0.00703211634824478</v>
+        <v>-0.03346571232987835</v>
       </c>
       <c r="F49">
-        <v>0.05212836277296936</v>
+        <v>-0.03577513046010746</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0394519922104918</v>
+        <v>-0.0482652230014439</v>
       </c>
       <c r="C50">
-        <v>0.02625688684085442</v>
+        <v>0.01118341435401936</v>
       </c>
       <c r="D50">
-        <v>-0.01165402243487511</v>
+        <v>-0.02656697381570233</v>
       </c>
       <c r="E50">
-        <v>0.02131976408604426</v>
+        <v>-0.02932512375634379</v>
       </c>
       <c r="F50">
-        <v>0.007137835458129026</v>
+        <v>-0.009116985722495526</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01437806888031177</v>
+        <v>-0.002460958223499619</v>
       </c>
       <c r="C51">
-        <v>-0.02763894399010643</v>
+        <v>0.0006361455379875469</v>
       </c>
       <c r="D51">
-        <v>-0.003650303422579267</v>
+        <v>0.00292385472575071</v>
       </c>
       <c r="E51">
-        <v>-0.01062838418867788</v>
+        <v>0.000444131522288959</v>
       </c>
       <c r="F51">
-        <v>0.01396683971418971</v>
+        <v>-0.005599659072081792</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.09915617169857184</v>
+        <v>-0.1449322006402325</v>
       </c>
       <c r="C52">
-        <v>0.07937790273507707</v>
+        <v>0.01350603358012559</v>
       </c>
       <c r="D52">
-        <v>-0.04810654895000824</v>
+        <v>-0.05226855445695416</v>
       </c>
       <c r="E52">
-        <v>0.029445084047002</v>
+        <v>-0.0238191480497762</v>
       </c>
       <c r="F52">
-        <v>0.0305116069765656</v>
+        <v>-0.03564557346779685</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1613468316792384</v>
+        <v>-0.1741644899131353</v>
       </c>
       <c r="C53">
-        <v>0.04384877507280038</v>
+        <v>0.01638667894097192</v>
       </c>
       <c r="D53">
-        <v>-0.02540646347481708</v>
+        <v>-0.01253326697834264</v>
       </c>
       <c r="E53">
-        <v>-0.009923925784309302</v>
+        <v>-0.03594174541099436</v>
       </c>
       <c r="F53">
-        <v>0.04571991563402242</v>
+        <v>-0.06622502334225609</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05559423121731633</v>
+        <v>-0.0213940866659183</v>
       </c>
       <c r="C54">
-        <v>0.04776910209053506</v>
+        <v>0.01239103930582209</v>
       </c>
       <c r="D54">
-        <v>-0.04006604317778932</v>
+        <v>-0.03415901340724563</v>
       </c>
       <c r="E54">
-        <v>-0.004308307425593823</v>
+        <v>-0.01550976796561649</v>
       </c>
       <c r="F54">
-        <v>0.01689769366413725</v>
+        <v>0.006563879698069721</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08444796467358638</v>
+        <v>-0.1144596003540973</v>
       </c>
       <c r="C55">
-        <v>0.002368433086954341</v>
+        <v>0.01503417028036276</v>
       </c>
       <c r="D55">
-        <v>-0.06859233125236577</v>
+        <v>-0.01178881151230176</v>
       </c>
       <c r="E55">
-        <v>0.02744729557361809</v>
+        <v>-0.03074379187918143</v>
       </c>
       <c r="F55">
-        <v>0.03040513006997778</v>
+        <v>-0.04751582061226359</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1547224601534674</v>
+        <v>-0.1778768700047527</v>
       </c>
       <c r="C56">
-        <v>0.04713833312433192</v>
+        <v>0.01377441712166479</v>
       </c>
       <c r="D56">
-        <v>-0.05860078482326928</v>
+        <v>-0.007752968122687469</v>
       </c>
       <c r="E56">
-        <v>0.02818693943452208</v>
+        <v>-0.04028307793544585</v>
       </c>
       <c r="F56">
-        <v>0.07991645364657175</v>
+        <v>-0.04238465726797145</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0507644213998626</v>
+        <v>-0.04653951129558186</v>
       </c>
       <c r="C58">
-        <v>0.03725929785276889</v>
+        <v>0.002356399943515608</v>
       </c>
       <c r="D58">
-        <v>-0.01944695845372854</v>
+        <v>-0.06450076966701908</v>
       </c>
       <c r="E58">
-        <v>-0.04723917447678682</v>
+        <v>-0.02258993627671253</v>
       </c>
       <c r="F58">
-        <v>0.005430032219473464</v>
+        <v>0.04508233889070859</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1928540743391006</v>
+        <v>-0.171546370415589</v>
       </c>
       <c r="C59">
-        <v>-0.2338973390262968</v>
+        <v>0.01610504299820461</v>
       </c>
       <c r="D59">
-        <v>0.08151270875440167</v>
+        <v>0.2248960156047246</v>
       </c>
       <c r="E59">
-        <v>0.02439834777236364</v>
+        <v>0.04924666968354291</v>
       </c>
       <c r="F59">
-        <v>-0.006601741937213059</v>
+        <v>0.03422717785578439</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2402950571590538</v>
+        <v>-0.2367987996009828</v>
       </c>
       <c r="C60">
-        <v>0.1162963597223419</v>
+        <v>-0.004072384334745449</v>
       </c>
       <c r="D60">
-        <v>0.01692391599548828</v>
+        <v>-0.04770815774068272</v>
       </c>
       <c r="E60">
-        <v>0.02751362318146217</v>
+        <v>-0.007299245875132627</v>
       </c>
       <c r="F60">
-        <v>0.09782625186257453</v>
+        <v>0.02902709975816121</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1093872266410433</v>
+        <v>-0.08351942045460711</v>
       </c>
       <c r="C61">
-        <v>0.02763500982148026</v>
+        <v>0.01396842740241008</v>
       </c>
       <c r="D61">
-        <v>-0.08536096989468732</v>
+        <v>-0.112521096214711</v>
       </c>
       <c r="E61">
-        <v>0.1093773777015468</v>
+        <v>-0.04225028465796125</v>
       </c>
       <c r="F61">
-        <v>0.05286420660395902</v>
+        <v>-0.01520928653913435</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1512425618442809</v>
+        <v>-0.1704804350650856</v>
       </c>
       <c r="C62">
-        <v>0.03317907604432537</v>
+        <v>0.01774691803502053</v>
       </c>
       <c r="D62">
-        <v>-0.03806573769002857</v>
+        <v>-0.01119368774981664</v>
       </c>
       <c r="E62">
-        <v>-0.00245180979893552</v>
+        <v>-0.037904200066771</v>
       </c>
       <c r="F62">
-        <v>0.05124953871373467</v>
+        <v>-0.02331453088833743</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04217360744553712</v>
+        <v>-0.04277471452454445</v>
       </c>
       <c r="C63">
-        <v>0.004625433477772914</v>
+        <v>0.003463556359484667</v>
       </c>
       <c r="D63">
-        <v>-0.02184255260621504</v>
+        <v>-0.05069135665060696</v>
       </c>
       <c r="E63">
-        <v>0.01403877553837848</v>
+        <v>-0.02278403978610353</v>
       </c>
       <c r="F63">
-        <v>-0.03427456115156545</v>
+        <v>-0.007193106782323788</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09502487963971751</v>
+        <v>-0.111795730805363</v>
       </c>
       <c r="C64">
-        <v>0.03547891446018692</v>
+        <v>0.01192595848204448</v>
       </c>
       <c r="D64">
-        <v>-0.03215729453420752</v>
+        <v>-0.04275749277427544</v>
       </c>
       <c r="E64">
-        <v>0.01393551230887451</v>
+        <v>-0.02170609457063754</v>
       </c>
       <c r="F64">
-        <v>0.06974164833675173</v>
+        <v>-0.02304543707518465</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1148926587602579</v>
+        <v>-0.1443637540532681</v>
       </c>
       <c r="C65">
-        <v>0.01546021710926513</v>
+        <v>0.03116761559489894</v>
       </c>
       <c r="D65">
-        <v>-0.01560581256865245</v>
+        <v>0.04206020012435389</v>
       </c>
       <c r="E65">
-        <v>0.007029368077377454</v>
+        <v>-0.0005930582429110475</v>
       </c>
       <c r="F65">
-        <v>-0.06360375202242033</v>
+        <v>-0.04230276924177448</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1292239472716863</v>
+        <v>-0.1299477846047161</v>
       </c>
       <c r="C66">
-        <v>0.0679087843531314</v>
+        <v>0.01550822398058218</v>
       </c>
       <c r="D66">
-        <v>-0.1316884742379201</v>
+        <v>-0.140793862611249</v>
       </c>
       <c r="E66">
-        <v>0.136890349471104</v>
+        <v>-0.06810374483960799</v>
       </c>
       <c r="F66">
-        <v>0.04853281492800685</v>
+        <v>-0.03375659597898391</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05236205945586429</v>
+        <v>-0.06247433499911404</v>
       </c>
       <c r="C67">
-        <v>-0.02444068371801172</v>
+        <v>0.003481384894922577</v>
       </c>
       <c r="D67">
-        <v>-0.07648026710205684</v>
+        <v>-0.05277442227524905</v>
       </c>
       <c r="E67">
-        <v>-0.02354833416929342</v>
+        <v>-0.01914371761447339</v>
       </c>
       <c r="F67">
-        <v>0.02560606690538431</v>
+        <v>0.03807054922331822</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1194015852049466</v>
+        <v>-0.1161361372120009</v>
       </c>
       <c r="C68">
-        <v>-0.2271505196644946</v>
+        <v>0.02566293956545092</v>
       </c>
       <c r="D68">
-        <v>0.1054473090416704</v>
+        <v>0.2641289043822919</v>
       </c>
       <c r="E68">
-        <v>0.02013890415426417</v>
+        <v>0.08681138073829493</v>
       </c>
       <c r="F68">
-        <v>-0.06100486842586039</v>
+        <v>-0.03363581331403476</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03282523184556962</v>
+        <v>-0.03937098470977544</v>
       </c>
       <c r="C69">
-        <v>-0.03297689925328701</v>
+        <v>0.00108468946169776</v>
       </c>
       <c r="D69">
-        <v>-0.0200525122622769</v>
+        <v>-0.009147264915166648</v>
       </c>
       <c r="E69">
-        <v>-0.005825929884279989</v>
+        <v>-0.02444060611434338</v>
       </c>
       <c r="F69">
-        <v>0.01212934912674063</v>
+        <v>0.01217042782523092</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03165349767900869</v>
+        <v>-0.06330856264919993</v>
       </c>
       <c r="C70">
-        <v>-0.01498323725254531</v>
+        <v>-0.02778427045071142</v>
       </c>
       <c r="D70">
-        <v>-0.03449950975375748</v>
+        <v>-0.02719421326510575</v>
       </c>
       <c r="E70">
-        <v>0.04470391043170201</v>
+        <v>0.04657559459342695</v>
       </c>
       <c r="F70">
-        <v>0.03073292654520187</v>
+        <v>0.2755671213526968</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1375409893951478</v>
+        <v>-0.1351914944627012</v>
       </c>
       <c r="C71">
-        <v>-0.2492463085666667</v>
+        <v>0.02990290964233257</v>
       </c>
       <c r="D71">
-        <v>0.1109033430292752</v>
+        <v>0.2797879387452014</v>
       </c>
       <c r="E71">
-        <v>0.01008209805930488</v>
+        <v>0.09540956765374706</v>
       </c>
       <c r="F71">
-        <v>-0.02323560009267641</v>
+        <v>-0.03942019470941294</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1413648642640984</v>
+        <v>-0.1405903658632025</v>
       </c>
       <c r="C72">
-        <v>0.02150501129364589</v>
+        <v>0.02460517922156764</v>
       </c>
       <c r="D72">
-        <v>-0.01459868543908595</v>
+        <v>-0.004923379842765412</v>
       </c>
       <c r="E72">
-        <v>-0.02081519033668557</v>
+        <v>-0.04541084242370801</v>
       </c>
       <c r="F72">
-        <v>0.01024517039036994</v>
+        <v>-0.02397074362083116</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2127673436195842</v>
+        <v>-0.2038338632548834</v>
       </c>
       <c r="C73">
-        <v>0.005921588824940897</v>
+        <v>0.01141395424779693</v>
       </c>
       <c r="D73">
-        <v>-0.03311682838483258</v>
+        <v>-0.01644454525397804</v>
       </c>
       <c r="E73">
-        <v>0.04431817031717775</v>
+        <v>-0.06219010947858725</v>
       </c>
       <c r="F73">
-        <v>0.1790083264619443</v>
+        <v>-0.03738234346627645</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1200162803971646</v>
+        <v>-0.09442698996464438</v>
       </c>
       <c r="C74">
-        <v>0.04770598925492332</v>
+        <v>0.01214673493207771</v>
       </c>
       <c r="D74">
-        <v>-0.07952633226368985</v>
+        <v>-0.02159035499358851</v>
       </c>
       <c r="E74">
-        <v>0.01134177035140235</v>
+        <v>-0.04801845253093717</v>
       </c>
       <c r="F74">
-        <v>0.03465632397065865</v>
+        <v>-0.04627510670869084</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1112286555815655</v>
+        <v>-0.1298052870423384</v>
       </c>
       <c r="C75">
-        <v>0.05522493785768477</v>
+        <v>0.0263764516874465</v>
       </c>
       <c r="D75">
-        <v>-0.0345141602822664</v>
+        <v>-0.03427756055863799</v>
       </c>
       <c r="E75">
-        <v>0.00231888196822542</v>
+        <v>-0.0609634843847217</v>
       </c>
       <c r="F75">
-        <v>0.0204823083173761</v>
+        <v>-0.01463803333677163</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02458798344032319</v>
+        <v>-0.004053707449752204</v>
       </c>
       <c r="C76">
-        <v>-0.01959042315393205</v>
+        <v>0.0009503252350844634</v>
       </c>
       <c r="D76">
-        <v>-0.004733131262269344</v>
+        <v>0.002653369922496254</v>
       </c>
       <c r="E76">
-        <v>0.007747418206199385</v>
+        <v>-0.0009219782460819506</v>
       </c>
       <c r="F76">
-        <v>0.02470003136912714</v>
+        <v>-0.003918080610271565</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06586453661569701</v>
+        <v>-0.07883983316216615</v>
       </c>
       <c r="C77">
-        <v>0.05019364681205463</v>
+        <v>0.01021919296236574</v>
       </c>
       <c r="D77">
-        <v>-0.01762561033029116</v>
+        <v>-0.1129729639533326</v>
       </c>
       <c r="E77">
-        <v>0.01808410594428973</v>
+        <v>-0.03816438984126871</v>
       </c>
       <c r="F77">
-        <v>0.06375575555329263</v>
+        <v>-0.03536046573981002</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1112817211837287</v>
+        <v>-0.1053277299429817</v>
       </c>
       <c r="C78">
-        <v>0.05019662683294555</v>
+        <v>0.04168653802190554</v>
       </c>
       <c r="D78">
-        <v>-0.1086260801994584</v>
+        <v>-0.1144896279256568</v>
       </c>
       <c r="E78">
-        <v>-0.3169885174672782</v>
+        <v>-0.08123398120065524</v>
       </c>
       <c r="F78">
-        <v>-0.0908709327426923</v>
+        <v>-0.07903306203697304</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1325371260122165</v>
+        <v>-0.164613029526114</v>
       </c>
       <c r="C79">
-        <v>0.05791620596114761</v>
+        <v>0.02033008824170594</v>
       </c>
       <c r="D79">
-        <v>-0.009227833500666149</v>
+        <v>-0.0194880552263588</v>
       </c>
       <c r="E79">
-        <v>-0.006422304609440619</v>
+        <v>-0.04994497614210745</v>
       </c>
       <c r="F79">
-        <v>0.03330827182159864</v>
+        <v>-0.006750918767014561</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07352762517456947</v>
+        <v>-0.0803435410769358</v>
       </c>
       <c r="C80">
-        <v>0.03269709961080972</v>
+        <v>-0.0004670077598398311</v>
       </c>
       <c r="D80">
-        <v>-0.1141580225612072</v>
+        <v>-0.05841855652945924</v>
       </c>
       <c r="E80">
-        <v>0.05895155980014905</v>
+        <v>-0.03595795444313001</v>
       </c>
       <c r="F80">
-        <v>0.06450301118067593</v>
+        <v>0.0155173704134436</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1389194829380755</v>
+        <v>-0.1233084906492828</v>
       </c>
       <c r="C81">
-        <v>0.06309777623866462</v>
+        <v>0.03033511873942228</v>
       </c>
       <c r="D81">
-        <v>-0.05770023824362145</v>
+        <v>-0.01869983111475029</v>
       </c>
       <c r="E81">
-        <v>0.01270063689608027</v>
+        <v>-0.06008889647051457</v>
       </c>
       <c r="F81">
-        <v>0.04051369654553667</v>
+        <v>-0.00612197747846699</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1535438326256192</v>
+        <v>-0.1640095853850975</v>
       </c>
       <c r="C82">
-        <v>0.04626104023076512</v>
+        <v>0.02137524030787369</v>
       </c>
       <c r="D82">
-        <v>-0.05090023281523789</v>
+        <v>-0.01679499143558401</v>
       </c>
       <c r="E82">
-        <v>0.02994642573335035</v>
+        <v>-0.03491919119538138</v>
       </c>
       <c r="F82">
-        <v>0.04723629803510741</v>
+        <v>-0.06575075454089195</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08201448611919791</v>
+        <v>-0.06316647211043955</v>
       </c>
       <c r="C83">
-        <v>0.1186314288587985</v>
+        <v>0.003500490675706648</v>
       </c>
       <c r="D83">
-        <v>-0.08426525892832502</v>
+        <v>-0.04975154354351427</v>
       </c>
       <c r="E83">
-        <v>-0.02059831920308697</v>
+        <v>-0.005481312275636654</v>
       </c>
       <c r="F83">
-        <v>0.008661411876995205</v>
+        <v>0.04193287915225121</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05506367540077074</v>
+        <v>-0.05911795033271432</v>
       </c>
       <c r="C84">
-        <v>-0.06487558542140394</v>
+        <v>0.0112564261279128</v>
       </c>
       <c r="D84">
-        <v>0.07739930152595717</v>
+        <v>-0.0637252269288977</v>
       </c>
       <c r="E84">
-        <v>0.03400687486274886</v>
+        <v>-0.001779166855883655</v>
       </c>
       <c r="F84">
-        <v>-0.006819223994893884</v>
+        <v>-0.01014730362700693</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1256970088619105</v>
+        <v>-0.1388481325040594</v>
       </c>
       <c r="C85">
-        <v>0.04171598195166468</v>
+        <v>0.02581540172776852</v>
       </c>
       <c r="D85">
-        <v>-0.0276847110710183</v>
+        <v>-0.01629346605807884</v>
       </c>
       <c r="E85">
-        <v>0.009819322588091702</v>
+        <v>-0.04148918216904306</v>
       </c>
       <c r="F85">
-        <v>0.06515697596760978</v>
+        <v>-0.04616904831196806</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1788461858776797</v>
+        <v>-0.09658145733905073</v>
       </c>
       <c r="C86">
-        <v>0.530564080629662</v>
+        <v>-0.007133211071740248</v>
       </c>
       <c r="D86">
-        <v>0.7641039862580143</v>
+        <v>-0.02181792940423634</v>
       </c>
       <c r="E86">
-        <v>-0.01864857005570555</v>
+        <v>-0.1538831817272834</v>
       </c>
       <c r="F86">
-        <v>-0.08531940293313844</v>
+        <v>0.867385577746891</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1112831356443459</v>
+        <v>-0.09862168094364721</v>
       </c>
       <c r="C87">
-        <v>0.08650828435691467</v>
+        <v>0.0250933169622153</v>
       </c>
       <c r="D87">
-        <v>-0.06518167705819428</v>
+        <v>-0.07713858820795658</v>
       </c>
       <c r="E87">
-        <v>-0.02111647906119667</v>
+        <v>0.05385137736802247</v>
       </c>
       <c r="F87">
-        <v>0.05582186217430113</v>
+        <v>-0.07757944818941162</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05021921956345321</v>
+        <v>-0.06115344140863692</v>
       </c>
       <c r="C88">
-        <v>0.0225184496313594</v>
+        <v>0.002968776441814341</v>
       </c>
       <c r="D88">
-        <v>-0.04439355612594071</v>
+        <v>-0.05347175688716835</v>
       </c>
       <c r="E88">
-        <v>0.04945904569314854</v>
+        <v>-0.02767833449441988</v>
       </c>
       <c r="F88">
-        <v>0.03273865392900317</v>
+        <v>-0.009067492383479817</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1921088868728748</v>
+        <v>-0.1359944231172772</v>
       </c>
       <c r="C89">
-        <v>-0.3284159152108719</v>
+        <v>0.008105828273113005</v>
       </c>
       <c r="D89">
-        <v>0.1587375046447863</v>
+        <v>0.2581591741006328</v>
       </c>
       <c r="E89">
-        <v>-0.06347994693439998</v>
+        <v>0.09156812338202749</v>
       </c>
       <c r="F89">
-        <v>-0.01919243077589479</v>
+        <v>-0.02311869855589873</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1486686222675721</v>
+        <v>-0.1460160030239478</v>
       </c>
       <c r="C90">
-        <v>-0.2340334007243001</v>
+        <v>0.02535848305447574</v>
       </c>
       <c r="D90">
-        <v>0.1079850125216751</v>
+        <v>0.266873813614412</v>
       </c>
       <c r="E90">
-        <v>0.02068986672570899</v>
+        <v>0.108647907061178</v>
       </c>
       <c r="F90">
-        <v>-0.01051826331034326</v>
+        <v>-0.02227687863343292</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08040328158664971</v>
+        <v>-0.1186130698104579</v>
       </c>
       <c r="C91">
-        <v>0.04241474946407091</v>
+        <v>0.0166971331012833</v>
       </c>
       <c r="D91">
-        <v>-0.00389920350183943</v>
+        <v>0.007273114183486574</v>
       </c>
       <c r="E91">
-        <v>0.006877885322541544</v>
+        <v>-0.05758609862908892</v>
       </c>
       <c r="F91">
-        <v>0.03869523602042683</v>
+        <v>0.01935191845680059</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1672537542232428</v>
+        <v>-0.1493312760194066</v>
       </c>
       <c r="C92">
-        <v>-0.2811645291760428</v>
+        <v>0.01720240388562438</v>
       </c>
       <c r="D92">
-        <v>0.1200706050620423</v>
+        <v>0.2975367967859364</v>
       </c>
       <c r="E92">
-        <v>-0.03276384680503656</v>
+        <v>0.1037308528427447</v>
       </c>
       <c r="F92">
-        <v>-0.02105504852562559</v>
+        <v>-0.01810252494668999</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.152562980446546</v>
+        <v>-0.1509365300709421</v>
       </c>
       <c r="C93">
-        <v>-0.2746464770105577</v>
+        <v>0.02197839577618323</v>
       </c>
       <c r="D93">
-        <v>0.1623631238563722</v>
+        <v>0.27004767150045</v>
       </c>
       <c r="E93">
-        <v>0.04762188048161736</v>
+        <v>0.07434773753562549</v>
       </c>
       <c r="F93">
-        <v>-0.02123263024414459</v>
+        <v>-0.01665009926484059</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1318730665125281</v>
+        <v>-0.1331818127643448</v>
       </c>
       <c r="C94">
-        <v>0.02696733014372547</v>
+        <v>0.02379675290653789</v>
       </c>
       <c r="D94">
-        <v>-0.06477435599829623</v>
+        <v>-0.04628370350673552</v>
       </c>
       <c r="E94">
-        <v>-0.01744961035166257</v>
+        <v>-0.06163440872679497</v>
       </c>
       <c r="F94">
-        <v>0.03553386440104273</v>
+        <v>-0.03212941779231329</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1109106697395633</v>
+        <v>-0.1253469399512964</v>
       </c>
       <c r="C95">
-        <v>0.0301682892200318</v>
+        <v>0.005312257952310862</v>
       </c>
       <c r="D95">
-        <v>-0.05699657914530566</v>
+        <v>-0.09096455831118005</v>
       </c>
       <c r="E95">
-        <v>-0.03812345556216576</v>
+        <v>-0.04451087397643835</v>
       </c>
       <c r="F95">
-        <v>0.0500921118109085</v>
+        <v>0.0144740859778686</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.009218684884674177</v>
+        <v>-0.0986175375890561</v>
       </c>
       <c r="C96">
-        <v>2.736186506960219e-05</v>
+        <v>-0.9889394625916215</v>
       </c>
       <c r="D96">
-        <v>-0.003971723251136676</v>
+        <v>0.02796471550051841</v>
       </c>
       <c r="E96">
-        <v>-0.002698895724520214</v>
+        <v>-0.05760123398864603</v>
       </c>
       <c r="F96">
-        <v>-0.004299610292497382</v>
+        <v>-0.04782760170531103</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1750963884790292</v>
+        <v>-0.188227574408656</v>
       </c>
       <c r="C97">
-        <v>0.0840662191714823</v>
+        <v>-0.01101149362329329</v>
       </c>
       <c r="D97">
-        <v>-0.1841396717665216</v>
+        <v>0.007059285405804791</v>
       </c>
       <c r="E97">
-        <v>-0.02650672984887572</v>
+        <v>-0.01888608415561979</v>
       </c>
       <c r="F97">
-        <v>-0.9087503494145632</v>
+        <v>0.1745852775299508</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2441617285902145</v>
+        <v>-0.2050981321253475</v>
       </c>
       <c r="C98">
-        <v>0.06093946385808763</v>
+        <v>0.007033522147318469</v>
       </c>
       <c r="D98">
-        <v>-0.0006694098445499288</v>
+        <v>-0.01041842834370399</v>
       </c>
       <c r="E98">
-        <v>-0.08819951276208385</v>
+        <v>0.09899402154109084</v>
       </c>
       <c r="F98">
-        <v>0.02490685023277969</v>
+        <v>0.1119463837949438</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04603701231763321</v>
+        <v>-0.05622397619405055</v>
       </c>
       <c r="C99">
-        <v>-0.02592859288829561</v>
+        <v>-0.00382903066446748</v>
       </c>
       <c r="D99">
-        <v>-0.04226671658788348</v>
+        <v>-0.03558069316912161</v>
       </c>
       <c r="E99">
-        <v>-0.008124209736668024</v>
+        <v>-0.02666965429868548</v>
       </c>
       <c r="F99">
-        <v>0.02450586265008813</v>
+        <v>-0.004331237894650132</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02257571798042063</v>
+        <v>-0.1244017684710622</v>
       </c>
       <c r="C100">
-        <v>-0.007818677358998549</v>
+        <v>-0.04944824228367759</v>
       </c>
       <c r="D100">
-        <v>-0.133686535234869</v>
+        <v>-0.3465971619980474</v>
       </c>
       <c r="E100">
-        <v>0.0481305014224668</v>
+        <v>0.8946645658639871</v>
       </c>
       <c r="F100">
-        <v>-0.05087447604891252</v>
+        <v>0.07756782000876919</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0334740341509362</v>
+        <v>-0.026949318005817</v>
       </c>
       <c r="C101">
-        <v>0.008742130953600036</v>
+        <v>0.008831763249228575</v>
       </c>
       <c r="D101">
-        <v>-0.03115539060601227</v>
+        <v>-0.03079186273076065</v>
       </c>
       <c r="E101">
-        <v>0.03810445644109509</v>
+        <v>-0.01143688043628215</v>
       </c>
       <c r="F101">
-        <v>0.0345830617196936</v>
+        <v>0.0144101551420772</v>
       </c>
     </row>
     <row r="102" spans="1:6">
